--- a/SchedulingData/static3/pso/scheduling1_12.xlsx
+++ b/SchedulingData/static3/pso/scheduling1_12.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>80.48</v>
+        <v>60.88</v>
       </c>
       <c r="E2" t="n">
-        <v>26.612</v>
+        <v>25.112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>58</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>24.9</v>
+        <v>25.392</v>
       </c>
     </row>
     <row r="4">
@@ -504,74 +504,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>48.3</v>
+        <v>80.3</v>
       </c>
       <c r="E4" t="n">
-        <v>27.36</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E5" t="n">
-        <v>24.68</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>70</v>
       </c>
-      <c r="D6" t="n">
-        <v>124.34</v>
-      </c>
       <c r="E6" t="n">
-        <v>21.376</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>60.88</v>
       </c>
       <c r="D7" t="n">
-        <v>75.2</v>
+        <v>98.58</v>
       </c>
       <c r="E7" t="n">
-        <v>24.66</v>
+        <v>22.472</v>
       </c>
     </row>
     <row r="8">
@@ -580,150 +580,150 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>52.5</v>
+        <v>85.2</v>
       </c>
       <c r="E8" t="n">
-        <v>27.44</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>52.5</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>112.68</v>
+        <v>152.46</v>
       </c>
       <c r="E9" t="n">
-        <v>22.552</v>
+        <v>21.024</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>112.68</v>
+        <v>58</v>
       </c>
       <c r="D10" t="n">
-        <v>166.54</v>
+        <v>128.1</v>
       </c>
       <c r="E10" t="n">
-        <v>19.296</v>
+        <v>20.98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>58</v>
+        <v>80.3</v>
       </c>
       <c r="D11" t="n">
-        <v>146.4</v>
+        <v>132.24</v>
       </c>
       <c r="E11" t="n">
-        <v>20.14</v>
+        <v>23.036</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>48.3</v>
+        <v>98.58</v>
       </c>
       <c r="D12" t="n">
-        <v>123.9</v>
+        <v>177.08</v>
       </c>
       <c r="E12" t="n">
-        <v>22.42</v>
+        <v>17.712</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>80.48</v>
+        <v>132.24</v>
       </c>
       <c r="D13" t="n">
-        <v>152.96</v>
+        <v>186.38</v>
       </c>
       <c r="E13" t="n">
-        <v>22.004</v>
+        <v>19.732</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>166.54</v>
+        <v>128.1</v>
       </c>
       <c r="D14" t="n">
-        <v>246.04</v>
+        <v>206.66</v>
       </c>
       <c r="E14" t="n">
-        <v>15.456</v>
+        <v>17.724</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>146.4</v>
+        <v>70</v>
       </c>
       <c r="D15" t="n">
-        <v>211.28</v>
+        <v>149</v>
       </c>
       <c r="E15" t="n">
-        <v>15.772</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="16">
@@ -732,17 +732,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>75.2</v>
+        <v>149</v>
       </c>
       <c r="D16" t="n">
-        <v>144.2</v>
+        <v>198.8</v>
       </c>
       <c r="E16" t="n">
-        <v>19.38</v>
+        <v>15.56</v>
       </c>
     </row>
     <row r="17">
@@ -751,17 +751,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>211.28</v>
+        <v>206.66</v>
       </c>
       <c r="D17" t="n">
-        <v>240.12</v>
+        <v>258.96</v>
       </c>
       <c r="E17" t="n">
-        <v>13.528</v>
+        <v>14.124</v>
       </c>
     </row>
     <row r="18">
@@ -770,150 +770,150 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>152.96</v>
+        <v>152.46</v>
       </c>
       <c r="D18" t="n">
-        <v>214.96</v>
+        <v>207.44</v>
       </c>
       <c r="E18" t="n">
-        <v>18.404</v>
+        <v>17.636</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>123.9</v>
+        <v>85.2</v>
       </c>
       <c r="D19" t="n">
-        <v>193.58</v>
+        <v>145.9</v>
       </c>
       <c r="E19" t="n">
-        <v>18.052</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>144.2</v>
+        <v>145.9</v>
       </c>
       <c r="D20" t="n">
-        <v>205.16</v>
+        <v>187.7</v>
       </c>
       <c r="E20" t="n">
-        <v>15.904</v>
+        <v>17.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>193.58</v>
+        <v>177.08</v>
       </c>
       <c r="D21" t="n">
-        <v>248.98</v>
+        <v>223.24</v>
       </c>
       <c r="E21" t="n">
-        <v>14.652</v>
+        <v>14.236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>214.96</v>
+        <v>198.8</v>
       </c>
       <c r="D22" t="n">
-        <v>295.06</v>
+        <v>251.84</v>
       </c>
       <c r="E22" t="n">
-        <v>14.484</v>
+        <v>12.856</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>246.04</v>
+        <v>186.38</v>
       </c>
       <c r="D23" t="n">
-        <v>299.08</v>
+        <v>248</v>
       </c>
       <c r="E23" t="n">
-        <v>12.752</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>124.34</v>
+        <v>207.44</v>
       </c>
       <c r="D24" t="n">
-        <v>181.08</v>
+        <v>266.28</v>
       </c>
       <c r="E24" t="n">
-        <v>17.812</v>
+        <v>15.392</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>248.98</v>
+        <v>187.7</v>
       </c>
       <c r="D25" t="n">
-        <v>290.8</v>
+        <v>267.48</v>
       </c>
       <c r="E25" t="n">
-        <v>12.1</v>
+        <v>12.792</v>
       </c>
     </row>
   </sheetData>
